--- a/___Statistical_Thinking_II_-Notas___/notes/notes.xlsx
+++ b/___Statistical_Thinking_II_-Notas___/notes/notes.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\4_Semestre-[Julio-Noviembre-2020]\____SumaDeCursosUFM2.2____\___Statistical_Thinking_II_-Notas___\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15123427-DB76-49A7-B126-67AF08F96EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7CA421-75DE-4A5D-B395-4243615099EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9810" yWindow="1170" windowWidth="14100" windowHeight="14640" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="video 15" sheetId="1" r:id="rId1"/>
     <sheet name="video 16" sheetId="2" r:id="rId2"/>
     <sheet name="video 17" sheetId="3" r:id="rId3"/>
+    <sheet name="video 20" sheetId="4" r:id="rId4"/>
+    <sheet name="Video 21" sheetId="5" r:id="rId5"/>
+    <sheet name="video 22" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t xml:space="preserve">Tienda </t>
   </si>
@@ -168,6 +171,87 @@
   </si>
   <si>
     <t>Rangos con signo</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Bachillerato</t>
+  </si>
+  <si>
+    <t>Población universitaria</t>
+  </si>
+  <si>
+    <t>Población bachillerato</t>
+  </si>
+  <si>
+    <t>Poblaciones</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranking </t>
+  </si>
+  <si>
+    <t>Suma:</t>
+  </si>
+  <si>
+    <t>Aditivo 1</t>
+  </si>
+  <si>
+    <t>Aditivo 2</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>n_1:</t>
+  </si>
+  <si>
+    <t>n_2:</t>
+  </si>
+  <si>
+    <t>W2:</t>
+  </si>
+  <si>
+    <t>W1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aproximar a la normal: </t>
+  </si>
+  <si>
+    <t>media:</t>
+  </si>
+  <si>
+    <t>desv:</t>
+  </si>
+  <si>
+    <t>Upper bound:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower bound: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">media: </t>
+  </si>
+  <si>
+    <t>Universidad A</t>
+  </si>
+  <si>
+    <t>Universidad B</t>
+  </si>
+  <si>
+    <t>Universidad C</t>
+  </si>
+  <si>
+    <t>Sum:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum: </t>
   </si>
 </sst>
 </file>
@@ -860,19 +944,19 @@
         <v>65.7</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B50" si="0">A3*1000</f>
+        <f t="shared" ref="B3:B24" si="0">A3*1000</f>
         <v>65700</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C50" si="1">IF(B3=56200,0,1)</f>
+        <f t="shared" ref="C3:C24" si="1">IF(B3=56200,0,1)</f>
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D50" si="2">IF(AND(C3=1,B3&gt;56200),1,0)</f>
+        <f t="shared" ref="D3:D24" si="2">IF(AND(C3=1,B3&gt;56200),1,0)</f>
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E50" si="3">IF(AND(C3=1,B3&lt;56200),1,0)</f>
+        <f t="shared" ref="E3:E24" si="3">IF(AND(C3=1,B3&lt;56200),1,0)</f>
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1444,19 +1528,19 @@
         <v>56.2</v>
       </c>
       <c r="B25">
-        <f>A26*1000</f>
+        <f t="shared" ref="B25:B49" si="4">A26*1000</f>
         <v>79700</v>
       </c>
       <c r="C25">
-        <f>IF(B25=56200,0,1)</f>
+        <f t="shared" ref="C25:C49" si="5">IF(B25=56200,0,1)</f>
         <v>1</v>
       </c>
       <c r="D25">
-        <f>IF(AND(C25=1,B25&gt;56200),1,0)</f>
+        <f t="shared" ref="D25:D49" si="6">IF(AND(C25=1,B25&gt;56200),1,0)</f>
         <v>1</v>
       </c>
       <c r="E25">
-        <f>IF(AND(C25=1,B25&lt;56200),1,0)</f>
+        <f t="shared" ref="E25:E49" si="7">IF(AND(C25=1,B25&lt;56200),1,0)</f>
         <v>0</v>
       </c>
       <c r="G25" s="8" t="s">
@@ -1472,19 +1556,19 @@
         <v>79.7</v>
       </c>
       <c r="B26">
-        <f>A27*1000</f>
+        <f t="shared" si="4"/>
         <v>61700</v>
       </c>
       <c r="C26">
-        <f>IF(B26=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D26">
-        <f>IF(AND(C26=1,B26&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E26">
-        <f>IF(AND(C26=1,B26&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1493,19 +1577,19 @@
         <v>61.7</v>
       </c>
       <c r="B27">
-        <f>A28*1000</f>
+        <f t="shared" si="4"/>
         <v>57800</v>
       </c>
       <c r="C27">
-        <f>IF(B27=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D27">
-        <f>IF(AND(C27=1,B27&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E27">
-        <f>IF(AND(C27=1,B27&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1514,19 +1598,19 @@
         <v>57.8</v>
       </c>
       <c r="B28">
-        <f>A29*1000</f>
+        <f t="shared" si="4"/>
         <v>87500</v>
       </c>
       <c r="C28">
-        <f>IF(B28=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D28">
-        <f>IF(AND(C28=1,B28&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E28">
-        <f>IF(AND(C28=1,B28&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1535,19 +1619,19 @@
         <v>87.5</v>
       </c>
       <c r="B29">
-        <f>A30*1000</f>
+        <f t="shared" si="4"/>
         <v>61900</v>
       </c>
       <c r="C29">
-        <f>IF(B29=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D29">
-        <f>IF(AND(C29=1,B29&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E29">
-        <f>IF(AND(C29=1,B29&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1556,19 +1640,19 @@
         <v>61.9</v>
       </c>
       <c r="B30">
-        <f>A31*1000</f>
+        <f t="shared" si="4"/>
         <v>109500</v>
       </c>
       <c r="C30">
-        <f>IF(B30=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D30">
-        <f>IF(AND(C30=1,B30&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E30">
-        <f>IF(AND(C30=1,B30&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1577,19 +1661,19 @@
         <v>109.5</v>
       </c>
       <c r="B31">
-        <f>A32*1000</f>
+        <f t="shared" si="4"/>
         <v>75400</v>
       </c>
       <c r="C31">
-        <f>IF(B31=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D31">
-        <f>IF(AND(C31=1,B31&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E31">
-        <f>IF(AND(C31=1,B31&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1598,19 +1682,19 @@
         <v>75.400000000000006</v>
       </c>
       <c r="B32">
-        <f>A33*1000</f>
+        <f t="shared" si="4"/>
         <v>57300</v>
       </c>
       <c r="C32">
-        <f>IF(B32=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D32">
-        <f>IF(AND(C32=1,B32&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E32">
-        <f>IF(AND(C32=1,B32&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1619,19 +1703,19 @@
         <v>57.3</v>
       </c>
       <c r="B33">
-        <f>A34*1000</f>
+        <f t="shared" si="4"/>
         <v>43700</v>
       </c>
       <c r="C33">
-        <f>IF(B33=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D33">
-        <f>IF(AND(C33=1,B33&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>IF(AND(C33=1,B33&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -1640,19 +1724,19 @@
         <v>43.7</v>
       </c>
       <c r="B34">
-        <f>A35*1000</f>
+        <f t="shared" si="4"/>
         <v>48900</v>
       </c>
       <c r="C34">
-        <f>IF(B34=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D34">
-        <f>IF(AND(C34=1,B34&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>IF(AND(C34=1,B34&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -1661,19 +1745,19 @@
         <v>48.9</v>
       </c>
       <c r="B35">
-        <f>A36*1000</f>
+        <f t="shared" si="4"/>
         <v>42300</v>
       </c>
       <c r="C35">
-        <f>IF(B35=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D35">
-        <f>IF(AND(C35=1,B35&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f>IF(AND(C35=1,B35&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -1682,19 +1766,19 @@
         <v>42.3</v>
       </c>
       <c r="B36">
-        <f>A37*1000</f>
+        <f t="shared" si="4"/>
         <v>54700</v>
       </c>
       <c r="C36">
-        <f>IF(B36=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D36">
-        <f>IF(AND(C36=1,B36&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>IF(AND(C36=1,B36&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -1703,19 +1787,19 @@
         <v>54.7</v>
       </c>
       <c r="B37">
-        <f>A38*1000</f>
+        <f t="shared" si="4"/>
         <v>83500</v>
       </c>
       <c r="C37">
-        <f>IF(B37=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D37">
-        <f>IF(AND(C37=1,B37&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E37">
-        <f>IF(AND(C37=1,B37&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1724,19 +1808,19 @@
         <v>83.5</v>
       </c>
       <c r="B38">
-        <f>A39*1000</f>
+        <f t="shared" si="4"/>
         <v>43600</v>
       </c>
       <c r="C38">
-        <f>IF(B38=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D38">
-        <f>IF(AND(C38=1,B38&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f>IF(AND(C38=1,B38&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -1745,19 +1829,19 @@
         <v>43.6</v>
       </c>
       <c r="B39">
-        <f>A40*1000</f>
+        <f t="shared" si="4"/>
         <v>53400</v>
       </c>
       <c r="C39">
-        <f>IF(B39=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D39">
-        <f>IF(AND(C39=1,B39&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f>IF(AND(C39=1,B39&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -1766,19 +1850,19 @@
         <v>53.4</v>
       </c>
       <c r="B40">
-        <f>A41*1000</f>
+        <f t="shared" si="4"/>
         <v>42100</v>
       </c>
       <c r="C40">
-        <f>IF(B40=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D40">
-        <f>IF(AND(C40=1,B40&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f>IF(AND(C40=1,B40&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -1787,19 +1871,19 @@
         <v>42.1</v>
       </c>
       <c r="B41">
-        <f>A42*1000</f>
+        <f t="shared" si="4"/>
         <v>73700</v>
       </c>
       <c r="C41">
-        <f>IF(B41=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D41">
-        <f>IF(AND(C41=1,B41&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E41">
-        <f>IF(AND(C41=1,B41&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1808,19 +1892,19 @@
         <v>73.7</v>
       </c>
       <c r="B42">
-        <f>A43*1000</f>
+        <f t="shared" si="4"/>
         <v>48500</v>
       </c>
       <c r="C42">
-        <f>IF(B42=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D42">
-        <f>IF(AND(C42=1,B42&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f>IF(AND(C42=1,B42&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -1829,19 +1913,19 @@
         <v>48.5</v>
       </c>
       <c r="B43">
-        <f>A44*1000</f>
+        <f t="shared" si="4"/>
         <v>86900</v>
       </c>
       <c r="C43">
-        <f>IF(B43=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D43">
-        <f>IF(AND(C43=1,B43&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E43">
-        <f>IF(AND(C43=1,B43&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1850,19 +1934,19 @@
         <v>86.9</v>
       </c>
       <c r="B44">
-        <f>A45*1000</f>
+        <f t="shared" si="4"/>
         <v>109600</v>
       </c>
       <c r="C44">
-        <f>IF(B44=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D44">
-        <f>IF(AND(C44=1,B44&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E44">
-        <f>IF(AND(C44=1,B44&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1871,19 +1955,19 @@
         <v>109.6</v>
       </c>
       <c r="B45">
-        <f>A46*1000</f>
+        <f t="shared" si="4"/>
         <v>52600</v>
       </c>
       <c r="C45">
-        <f>IF(B45=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D45">
-        <f>IF(AND(C45=1,B45&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f>IF(AND(C45=1,B45&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -1892,19 +1976,19 @@
         <v>52.6</v>
       </c>
       <c r="B46">
-        <f>A47*1000</f>
+        <f t="shared" si="4"/>
         <v>95200</v>
       </c>
       <c r="C46">
-        <f>IF(B46=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D46">
-        <f>IF(AND(C46=1,B46&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E46">
-        <f>IF(AND(C46=1,B46&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1913,19 +1997,19 @@
         <v>95.2</v>
       </c>
       <c r="B47">
-        <f>A48*1000</f>
+        <f t="shared" si="4"/>
         <v>56500</v>
       </c>
       <c r="C47">
-        <f>IF(B47=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D47">
-        <f>IF(AND(C47=1,B47&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E47">
-        <f>IF(AND(C47=1,B47&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1934,19 +2018,19 @@
         <v>56.5</v>
       </c>
       <c r="B48">
-        <f>A49*1000</f>
+        <f t="shared" si="4"/>
         <v>67200</v>
       </c>
       <c r="C48">
-        <f>IF(B48=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D48">
-        <f>IF(AND(C48=1,B48&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E48">
-        <f>IF(AND(C48=1,B48&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1955,19 +2039,19 @@
         <v>67.2</v>
       </c>
       <c r="B49">
-        <f>A50*1000</f>
+        <f t="shared" si="4"/>
         <v>74600</v>
       </c>
       <c r="C49">
-        <f>IF(B49=56200,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D49">
-        <f>IF(AND(C49=1,B49&gt;56200),1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E49">
-        <f>IF(AND(C49=1,B49&lt;56200),1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1985,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDE4BC1-30D5-4160-9381-896927399FD4}">
   <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -2130,7 +2214,7 @@
         <v>3.5</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" ref="H5:H14" si="4">IF(E6&lt;0,-G6,"")</f>
+        <f t="shared" ref="H6:H14" si="4">IF(E6&lt;0,-G6,"")</f>
         <v/>
       </c>
       <c r="I6">
@@ -2547,4 +2631,978 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D63F94-6B35-47B3-AF26-992335CCD91F}">
+  <dimension ref="B1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <f>G3</f>
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.RANK.EQ(F3,$F$3:$F$11,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>G4</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.RANK.EQ(F4,$F$3:$F$11,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <f>G5</f>
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <f>_xlfn.RANK.EQ(F5,$F$3:$F$11,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f>G6</f>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <f>_xlfn.RANK.EQ(F6,$F$3:$F$11,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D3:D6)</f>
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <f>_xlfn.RANK.EQ(F7,$F$3:$F$11,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <f>_xlfn.RANK.EQ(F8,$F$3:$F$11,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <f>_xlfn.RANK.EQ(F9,$F$3:$F$11,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <f>G7</f>
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <f>_xlfn.RANK.EQ(F10,$F$3:$F$11,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D14" si="0">G8</f>
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <f>_xlfn.RANK.EQ(F11,$F$3:$F$11,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D10:D14)</f>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF98101-385F-45BB-BBAF-7980F5AC5C55}">
+  <dimension ref="B2:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>17.3</v>
+      </c>
+      <c r="C3">
+        <f>F3</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>17.3</v>
+      </c>
+      <c r="F3">
+        <f>_xlfn.RANK.AVG(E3,$E$3:$E$18,1)</f>
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3">
+        <f>C10</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C4">
+        <f>F4</f>
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F18" si="0">_xlfn.RANK.AVG(E4,$E$3:$E$18,1)</f>
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4">
+        <f>C21</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C5">
+        <f>F5</f>
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5">
+        <f>COUNT(C3:C9)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>16.7</v>
+      </c>
+      <c r="C6">
+        <f>F6</f>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>16.7</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6">
+        <f>COUNT(C12:C20)</f>
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6">
+        <f>1+2+3+4+5+6+7</f>
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="7">
+        <f>+AVERAGE(L6:L7)</f>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>18.2</v>
+      </c>
+      <c r="C7">
+        <f>F7</f>
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>18.2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7">
+        <f>10+11+12+13+14+15+16</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C8">
+        <f>F8</f>
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>17.5</v>
+      </c>
+      <c r="C9">
+        <f>F9</f>
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>17.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>SUM(C3:C9)</f>
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>18.7</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10">
+        <f>(I5*(I5+I6+1))/2</f>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>17.8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11">
+        <f>SQRT( (I5*I6*(I5+I6+1)) / 12)</f>
+        <v>9.4472218138455926</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>18.7</v>
+      </c>
+      <c r="C12">
+        <f>F10</f>
+        <v>8.5</v>
+      </c>
+      <c r="E12">
+        <v>21.3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>17.8</v>
+      </c>
+      <c r="C13">
+        <f>F11</f>
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>21.3</v>
+      </c>
+      <c r="C14">
+        <f>F12</f>
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>22.1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <f>F13</f>
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>18.7</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>22.1</v>
+      </c>
+      <c r="C16">
+        <f>F14</f>
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>19.8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>18.7</v>
+      </c>
+      <c r="C17">
+        <f>F15</f>
+        <v>8.5</v>
+      </c>
+      <c r="E17">
+        <v>20.7</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>19.8</v>
+      </c>
+      <c r="C18">
+        <f>F16</f>
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>20.2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>20.7</v>
+      </c>
+      <c r="C19">
+        <f>F17</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>20.2</v>
+      </c>
+      <c r="C20">
+        <f>F18</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>SUM(C12:C20)</f>
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E32B22C-3B08-431D-AF03-9A2197962ECC}">
+  <dimension ref="B2:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <f>L3</f>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <f>L10</f>
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <f>L16</f>
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.RANK.AVG(K3,$K$3:$K$22,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C9" si="0">L4</f>
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <f>L11</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>70</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I9" si="1">L17</f>
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>70</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L22" si="2">_xlfn.RANK.AVG(K4,$K$3:$K$22,1)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <f>L12</f>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>85</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <f>L13</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="K6">
+        <v>85</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <f>L14</f>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="K7">
+        <v>95</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <f>L15</f>
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>70</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>90</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="H9">
+        <v>75</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>80</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C3:C9)</f>
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F3:F9)</f>
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10">
+        <f>SUM(I3:I9)</f>
+        <v>88</v>
+      </c>
+      <c r="K10">
+        <v>60</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>15</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>40</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>35</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>70</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>60</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>80</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>70</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>75</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>